--- a/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/200414_영상분석_흥미곡선_vs헌트리스.xlsx
+++ b/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/200414_영상분석_흥미곡선_vs헌트리스.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bumizi\Desktop\Study\Thesis\DBD 분석\맵 분석\3. 콜드윈드 농장(★)\3. 썩은 들판(★)\영상분석자료\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -97,10 +92,6 @@
   </si>
   <si>
     <t>~1:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start (A)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -484,11 +475,15 @@
     <t>고문 발동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Starting (A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -646,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -668,9 +663,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -683,6 +675,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -692,44 +720,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,15 +752,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>137352</xdr:rowOff>
+      <xdr:rowOff>80202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>50652</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>41127</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -779,7 +777,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515100" y="3909252"/>
+          <a:off x="6505575" y="3852102"/>
           <a:ext cx="7937352" cy="2624897"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -835,7 +833,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -870,7 +868,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1081,10 +1079,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CE46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="I10" sqref="I10"/>
+      <selection pane="topRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1105,170 +1103,170 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="W4" s="16"/>
-      <c r="X4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="25" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="W4" s="17"/>
+      <c r="X4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD4" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD4" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE4" s="24"/>
+      <c r="AE4" s="19"/>
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S5" s="4" t="s">
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB5" s="4" t="s">
+      <c r="W5" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z5" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA5" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB5" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC5" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="AC5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AD5" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE5" s="28" t="s">
         <v>84</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
@@ -1334,146 +1332,146 @@
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="W7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.3">
       <c r="F8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="AB8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.3">
       <c r="J9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.3">
@@ -1490,98 +1488,98 @@
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:83" x14ac:dyDescent="0.3">
       <c r="F12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="17" t="s">
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="17" t="s">
+      <c r="L15" s="13"/>
+      <c r="M15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="X15" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA15" s="17" t="s">
+      <c r="AA15" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD15" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD15" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE15" s="19"/>
+      <c r="AE15" s="13"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -1595,150 +1593,150 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
       <c r="W28" s="5"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="B34" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
@@ -1754,18 +1752,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="P15:V15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="B37:H39"/>
     <mergeCell ref="B40:H42"/>
     <mergeCell ref="E4:F4"/>
@@ -1775,6 +1761,18 @@
     <mergeCell ref="B28:H30"/>
     <mergeCell ref="B31:H33"/>
     <mergeCell ref="B34:H36"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="P15:V15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
